--- a/examples/simple-header/contacts.xlsx
+++ b/examples/simple-header/contacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrike/Documents/nextCloud/Produkte/FX – Extensions/Reports/examples/simple-header/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils/Documents/Git/fx-reports/examples/simple-header/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067663D-F1F0-E147-AA04-AABD9168EE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2C7A11-367E-5A4F-B081-F54FAED9E780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="7920" windowWidth="28980" windowHeight="24620" xr2:uid="{ABF01E32-404C-4E4C-8596-6F7EA313BDFC}"/>
+    <workbookView xWindow="22220" yWindow="4180" windowWidth="28980" windowHeight="24620" xr2:uid="{ABF01E32-404C-4E4C-8596-6F7EA313BDFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -317,19 +317,19 @@
     <t>สุวรรณพงศ์</t>
   </si>
   <si>
-    <t>Table::Contact::b_firstname</t>
-  </si>
-  <si>
-    <t>Table::Contact::b_language</t>
-  </si>
-  <si>
-    <t>Table::Contact::b_title</t>
-  </si>
-  <si>
-    <t>Table::Contact::b_lastname</t>
-  </si>
-  <si>
-    <t>Table::Contact::b_gender</t>
+    <t>Contact::b_firstname</t>
+  </si>
+  <si>
+    <t>Contact::b_lastname</t>
+  </si>
+  <si>
+    <t>Contact::b_title</t>
+  </si>
+  <si>
+    <t>Contact::b_language</t>
+  </si>
+  <si>
+    <t>Contact::b_gender</t>
   </si>
 </sst>
 </file>
@@ -688,16 +688,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>76</v>
@@ -714,7 +714,7 @@
         <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,5 +1161,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/examples/simple-header/contacts.xlsx
+++ b/examples/simple-header/contacts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils/Documents/Git/fx-reports/examples/simple-header/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils/Documents/Git/fx-reports-dev/examples/simple-header/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2C7A11-367E-5A4F-B081-F54FAED9E780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A29F0-AD13-8341-BA4A-BAAEC7AC6994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22220" yWindow="4180" windowWidth="28980" windowHeight="24620" xr2:uid="{ABF01E32-404C-4E4C-8596-6F7EA313BDFC}"/>
   </bookViews>
@@ -317,19 +317,19 @@
     <t>สุวรรณพงศ์</t>
   </si>
   <si>
+    <t>Contact::b_gender</t>
+  </si>
+  <si>
+    <t>Contact::b_language</t>
+  </si>
+  <si>
+    <t>Contact::b_title</t>
+  </si>
+  <si>
     <t>Contact::b_firstname</t>
   </si>
   <si>
     <t>Contact::b_lastname</t>
-  </si>
-  <si>
-    <t>Contact::b_title</t>
-  </si>
-  <si>
-    <t>Contact::b_language</t>
-  </si>
-  <si>
-    <t>Contact::b_gender</t>
   </si>
 </sst>
 </file>
@@ -688,33 +688,33 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,6 +1161,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>